--- a/数据整理/stocks/A股/深证主板/002063-远光软件.xlsx
+++ b/数据整理/stocks/A股/深证主板/002063-远光软件.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -659,7 +660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +671,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -690,13 +711,293 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>008404</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1763</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008405</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002063-远光软件.xlsx
+++ b/数据整理/stocks/A股/深证主板/002063-远光软件.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -944,7 +945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,17 +956,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -975,14 +996,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.64</v>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -991,13 +1034,119 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002063-远光软件.xlsx
+++ b/数据整理/stocks/A股/深证主板/002063-远光软件.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008404</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华泰紫金泰盈混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.77</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.11</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4448</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008405</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华泰紫金泰盈混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.11</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2077</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.64</v>
       </c>
     </row>
     <row r="4">
@@ -580,74 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011694</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.85</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1992</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011695</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.85</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0528</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -656,6 +532,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -939,13 +947,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -996,32 +1004,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011694</t>
+          <t>008404</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+          <t>华泰紫金泰盈混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>10.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.49</t>
+          <t>87.11</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0922</t>
+          <t>0.4448</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1034,104 +1042,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011695</t>
+          <t>008405</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+          <t>华泰紫金泰盈混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.49</t>
+          <t>87.11</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0303</t>
+          <t>0.2077</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.64</v>
       </c>
     </row>
     <row r="4">
@@ -1140,14 +1080,74 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9</v>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1992</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002063-远光软件.xlsx
+++ b/数据整理/stocks/A股/深证主板/002063-远光软件.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.12</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.64</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.9</v>
       </c>
     </row>
@@ -532,6 +549,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5282</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013620</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -663,7 +926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -947,7 +1210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002063-远光软件.xlsx
+++ b/数据整理/stocks/A股/深证主板/002063-远光软件.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="D2" t="n">
-        <v>1.71</v>
+        <v>7.26</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.12</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.64</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.9</v>
       </c>
     </row>
@@ -549,6 +566,1920 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5734</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8903</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5154</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012985</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>平安优势回报1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4773</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安成长创新混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3906</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3363</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012917</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安优势领航1年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2641</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2366</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2084</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013091</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1593</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1476</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城中小创精选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1265</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>016105</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>申万菱信兴乐优选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>54.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>016106</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>申万菱信兴乐优选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>54.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011828</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013620</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014126</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013899</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012904</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上投摩根鑫睿优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013687</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安成长龙头1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012986</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>平安优势回报1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011829</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013688</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>平安成长龙头1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013092</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>80.86</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>016099</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安成长创新混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014125</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013900</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012918</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>平安优势领航1年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014972</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>015057</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>77.24</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>016401</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>015077</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -794,7 +2725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -926,7 +2857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1210,7 +3141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
